--- a/data/blue_sucker_2021_data.xlsx
+++ b/data/blue_sucker_2021_data.xlsx
@@ -8,17 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lindseylabrie/Desktop/blue_sucker/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F3D550-BA24-444D-A77F-4CDE5F107C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95887190-FD10-194A-9D5E-77B3038CA103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="420" yWindow="500" windowWidth="26340" windowHeight="13320" xr2:uid="{8552AB9B-F092-A14C-8782-BA2E7E5B778C}"/>
   </bookViews>
   <sheets>
     <sheet name="2021_spring_conf" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2126" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2126" uniqueCount="39">
   <si>
     <t>Y</t>
   </si>
@@ -61,12 +58,6 @@
   </si>
   <si>
     <t>tag_id</t>
-  </si>
-  <si>
-    <t>length</t>
-  </si>
-  <si>
-    <t>weight</t>
   </si>
   <si>
     <t>fin_ray</t>
@@ -102,36 +93,6 @@
     <t>acoustic_id_nmbr</t>
   </si>
   <si>
-    <t>gonad_weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ovary_1 </t>
-  </si>
-  <si>
-    <t>ovary_2</t>
-  </si>
-  <si>
-    <t>ovary_1_sample_1</t>
-  </si>
-  <si>
-    <t>ovary_2_sample_2</t>
-  </si>
-  <si>
-    <t>ovary_1_sample_3</t>
-  </si>
-  <si>
-    <t>ovary_2_sample_1</t>
-  </si>
-  <si>
-    <t>ovary_2_sample_3</t>
-  </si>
-  <si>
-    <t>ovary_1_avg</t>
-  </si>
-  <si>
-    <t>ovary_2_avg</t>
-  </si>
-  <si>
     <t>standard_weight</t>
   </si>
   <si>
@@ -151,6 +112,45 @@
   </si>
   <si>
     <t>threw_out_eggs</t>
+  </si>
+  <si>
+    <t>gonad_weight_g</t>
+  </si>
+  <si>
+    <t>ovary_1 _g</t>
+  </si>
+  <si>
+    <t>ovary_2_g</t>
+  </si>
+  <si>
+    <t>o1_sample_1</t>
+  </si>
+  <si>
+    <t>o1_sample_2</t>
+  </si>
+  <si>
+    <t>o1_sample_3</t>
+  </si>
+  <si>
+    <t>o2_sample_1</t>
+  </si>
+  <si>
+    <t>o2_sample_2</t>
+  </si>
+  <si>
+    <t>o2_sample_3</t>
+  </si>
+  <si>
+    <t>o1_avg_count</t>
+  </si>
+  <si>
+    <t>o2_avg_count</t>
+  </si>
+  <si>
+    <t>length_mm</t>
+  </si>
+  <si>
+    <t>weight_g</t>
   </si>
 </sst>
 </file>
@@ -250,899 +250,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="2020 Fall Sampling Data"/>
-      <sheetName val="2019 Spring Conf."/>
-      <sheetName val="2020 Spring Conf."/>
-      <sheetName val="2021 Spring Conf."/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3">
-        <row r="1">
-          <cell r="AA1" t="str">
-            <v>Ovary 1 AVG</v>
-          </cell>
-          <cell r="AB1" t="str">
-            <v>Ovary 2 AVG</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="C2">
-            <v>669</v>
-          </cell>
-          <cell r="R2">
-            <v>362.51</v>
-          </cell>
-          <cell r="AA2">
-            <v>206</v>
-          </cell>
-          <cell r="AB2">
-            <v>222.66666666666666</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="C3">
-            <v>702</v>
-          </cell>
-          <cell r="R3">
-            <v>342.32000000000005</v>
-          </cell>
-          <cell r="AA3">
-            <v>213.66666666666666</v>
-          </cell>
-          <cell r="AB3">
-            <v>202.66666666666666</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4">
-            <v>748</v>
-          </cell>
-          <cell r="R4">
-            <v>440.13</v>
-          </cell>
-          <cell r="AA4">
-            <v>165</v>
-          </cell>
-          <cell r="AB4">
-            <v>245.33333333333334</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="C5">
-            <v>629</v>
-          </cell>
-          <cell r="R5">
-            <v>249.64</v>
-          </cell>
-          <cell r="AA5">
-            <v>300</v>
-          </cell>
-          <cell r="AB5">
-            <v>292</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6">
-            <v>671</v>
-          </cell>
-          <cell r="R6">
-            <v>286.95999999999998</v>
-          </cell>
-          <cell r="AA6">
-            <v>199</v>
-          </cell>
-          <cell r="AB6">
-            <v>211.33333333333334</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>604</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8">
-            <v>680</v>
-          </cell>
-          <cell r="R8">
-            <v>338.61</v>
-          </cell>
-          <cell r="AA8">
-            <v>262.33333333333331</v>
-          </cell>
-          <cell r="AB8">
-            <v>263</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9">
-            <v>764</v>
-          </cell>
-          <cell r="R9">
-            <v>568.15000000000009</v>
-          </cell>
-          <cell r="AA9">
-            <v>256</v>
-          </cell>
-          <cell r="AB9">
-            <v>233.33333333333334</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10">
-            <v>720</v>
-          </cell>
-          <cell r="R10">
-            <v>425.55</v>
-          </cell>
-          <cell r="AA10">
-            <v>232</v>
-          </cell>
-          <cell r="AB10">
-            <v>249</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11">
-            <v>687</v>
-          </cell>
-          <cell r="R11">
-            <v>400.66999999999996</v>
-          </cell>
-          <cell r="AA11">
-            <v>241</v>
-          </cell>
-          <cell r="AB11">
-            <v>234</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12">
-            <v>696</v>
-          </cell>
-          <cell r="R12">
-            <v>394.43</v>
-          </cell>
-          <cell r="AA12">
-            <v>218.33333333333334</v>
-          </cell>
-          <cell r="AB12">
-            <v>217.33333333333334</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="C13">
-            <v>747</v>
-          </cell>
-          <cell r="R13">
-            <v>447.58000000000004</v>
-          </cell>
-          <cell r="AA13">
-            <v>202.66666666666666</v>
-          </cell>
-          <cell r="AB13">
-            <v>191.66666666666666</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="C14">
-            <v>728</v>
-          </cell>
-          <cell r="R14">
-            <v>548.49</v>
-          </cell>
-          <cell r="AA14">
-            <v>229.66666666666666</v>
-          </cell>
-          <cell r="AB14">
-            <v>218</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="C15">
-            <v>707</v>
-          </cell>
-          <cell r="R15">
-            <v>453.8</v>
-          </cell>
-          <cell r="AA15">
-            <v>244.66666666666666</v>
-          </cell>
-          <cell r="AB15">
-            <v>270</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="C16">
-            <v>646</v>
-          </cell>
-          <cell r="R16">
-            <v>338.4</v>
-          </cell>
-          <cell r="AA16">
-            <v>297.66666666666669</v>
-          </cell>
-          <cell r="AB16">
-            <v>316.33333333333331</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="C17">
-            <v>728</v>
-          </cell>
-          <cell r="R17">
-            <v>370.62</v>
-          </cell>
-          <cell r="AA17">
-            <v>250.66666666666666</v>
-          </cell>
-          <cell r="AB17">
-            <v>229.66666666666666</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="C18">
-            <v>806</v>
-          </cell>
-          <cell r="R18">
-            <v>391.61</v>
-          </cell>
-          <cell r="AA18">
-            <v>219</v>
-          </cell>
-          <cell r="AB18">
-            <v>186.33333333333334</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="C19">
-            <v>771</v>
-          </cell>
-          <cell r="R19">
-            <v>377.18</v>
-          </cell>
-          <cell r="AA19">
-            <v>226</v>
-          </cell>
-          <cell r="AB19">
-            <v>237.66666666666666</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="C20">
-            <v>796</v>
-          </cell>
-          <cell r="R20">
-            <v>401.16999999999996</v>
-          </cell>
-          <cell r="AA20">
-            <v>219.33333333333334</v>
-          </cell>
-          <cell r="AB20">
-            <v>233.33333333333334</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="C21">
-            <v>681</v>
-          </cell>
-          <cell r="R21">
-            <v>396.45</v>
-          </cell>
-          <cell r="AA21">
-            <v>216.33333333333334</v>
-          </cell>
-          <cell r="AB21">
-            <v>193.66666666666666</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="C22">
-            <v>786</v>
-          </cell>
-          <cell r="R22">
-            <v>406.09</v>
-          </cell>
-          <cell r="AA22">
-            <v>248.66666666666666</v>
-          </cell>
-          <cell r="AB22">
-            <v>242</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="C23">
-            <v>711</v>
-          </cell>
-          <cell r="R23">
-            <v>445.20000000000005</v>
-          </cell>
-          <cell r="AA23">
-            <v>238.33333333333334</v>
-          </cell>
-          <cell r="AB23">
-            <v>224</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="C24">
-            <v>667</v>
-          </cell>
-          <cell r="R24">
-            <v>366.75</v>
-          </cell>
-          <cell r="AA24">
-            <v>267.33333333333331</v>
-          </cell>
-          <cell r="AB24">
-            <v>272</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="C25">
-            <v>576</v>
-          </cell>
-          <cell r="R25">
-            <v>253.41</v>
-          </cell>
-          <cell r="AA25">
-            <v>277.66666666666669</v>
-          </cell>
-          <cell r="AB25">
-            <v>277</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="C26">
-            <v>685</v>
-          </cell>
-          <cell r="R26">
-            <v>375.72</v>
-          </cell>
-          <cell r="AA26">
-            <v>238.33333333333334</v>
-          </cell>
-          <cell r="AB26">
-            <v>230</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="C27">
-            <v>637</v>
-          </cell>
-          <cell r="R27">
-            <v>273.08</v>
-          </cell>
-          <cell r="AA27">
-            <v>267.33333333333331</v>
-          </cell>
-          <cell r="AB27">
-            <v>264.33333333333331</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="C28">
-            <v>607</v>
-          </cell>
-          <cell r="R28">
-            <v>226.3</v>
-          </cell>
-          <cell r="AA28">
-            <v>282.66666666666669</v>
-          </cell>
-          <cell r="AB28">
-            <v>322</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="C29">
-            <v>560</v>
-          </cell>
-          <cell r="R29">
-            <v>135.89000000000001</v>
-          </cell>
-          <cell r="AA29">
-            <v>254.66666666666666</v>
-          </cell>
-          <cell r="AB29">
-            <v>275.33333333333331</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="C30">
-            <v>590</v>
-          </cell>
-          <cell r="R30">
-            <v>191.85</v>
-          </cell>
-          <cell r="AA30">
-            <v>319</v>
-          </cell>
-          <cell r="AB30">
-            <v>301.66666666666669</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="C31">
-            <v>653</v>
-          </cell>
-          <cell r="R31">
-            <v>300.10000000000002</v>
-          </cell>
-          <cell r="AA31">
-            <v>217.66666666666666</v>
-          </cell>
-          <cell r="AB31">
-            <v>211.66666666666666</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="C32">
-            <v>755</v>
-          </cell>
-          <cell r="R32">
-            <v>489.58</v>
-          </cell>
-          <cell r="AA32">
-            <v>206</v>
-          </cell>
-          <cell r="AB32">
-            <v>220.33333333333334</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="C33">
-            <v>707</v>
-          </cell>
-          <cell r="R33">
-            <v>521.82999999999993</v>
-          </cell>
-          <cell r="AA33">
-            <v>227.66666666666666</v>
-          </cell>
-          <cell r="AB33">
-            <v>229.66666666666666</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="C34">
-            <v>702</v>
-          </cell>
-          <cell r="R34">
-            <v>542.98</v>
-          </cell>
-          <cell r="AA34">
-            <v>248.33333333333334</v>
-          </cell>
-          <cell r="AB34">
-            <v>238.66666666666666</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="C35">
-            <v>712</v>
-          </cell>
-          <cell r="R35">
-            <v>388.52</v>
-          </cell>
-          <cell r="AA35">
-            <v>234</v>
-          </cell>
-          <cell r="AB35">
-            <v>240.33333333333334</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="C36">
-            <v>666</v>
-          </cell>
-          <cell r="R36">
-            <v>364.24</v>
-          </cell>
-          <cell r="AA36">
-            <v>236</v>
-          </cell>
-          <cell r="AB36">
-            <v>239.66666666666666</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="C37">
-            <v>718</v>
-          </cell>
-          <cell r="R37">
-            <v>423.64</v>
-          </cell>
-          <cell r="AA37">
-            <v>287.33333333333331</v>
-          </cell>
-          <cell r="AB37">
-            <v>280.66666666666669</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="C38">
-            <v>705</v>
-          </cell>
-          <cell r="R38">
-            <v>407.24</v>
-          </cell>
-          <cell r="AA38">
-            <v>273.33333333333331</v>
-          </cell>
-          <cell r="AB38">
-            <v>266.33333333333331</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="C39">
-            <v>673</v>
-          </cell>
-          <cell r="R39">
-            <v>310.75</v>
-          </cell>
-          <cell r="AA39">
-            <v>244.33333333333334</v>
-          </cell>
-          <cell r="AB39">
-            <v>236.66666666666666</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="C40">
-            <v>685</v>
-          </cell>
-          <cell r="R40">
-            <v>353.29999999999995</v>
-          </cell>
-          <cell r="AA40">
-            <v>289.33333333333331</v>
-          </cell>
-          <cell r="AB40">
-            <v>324</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="C41">
-            <v>661</v>
-          </cell>
-          <cell r="R41">
-            <v>104.46</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="C42">
-            <v>688</v>
-          </cell>
-          <cell r="R42">
-            <v>102</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="C43">
-            <v>545</v>
-          </cell>
-          <cell r="R43">
-            <v>41.95</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="C44">
-            <v>654</v>
-          </cell>
-          <cell r="R44">
-            <v>93.91</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="C45">
-            <v>617</v>
-          </cell>
-          <cell r="R45">
-            <v>72.959999999999994</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="C46">
-            <v>700</v>
-          </cell>
-          <cell r="R46">
-            <v>134.1</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="C47">
-            <v>654</v>
-          </cell>
-          <cell r="R47">
-            <v>99.64</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="C48">
-            <v>691</v>
-          </cell>
-          <cell r="R48">
-            <v>122.94</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="C49">
-            <v>559</v>
-          </cell>
-          <cell r="R49">
-            <v>95.02</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="C50">
-            <v>673</v>
-          </cell>
-          <cell r="R50">
-            <v>122.57</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="C51">
-            <v>671</v>
-          </cell>
-          <cell r="R51">
-            <v>111.21</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="C52">
-            <v>632</v>
-          </cell>
-          <cell r="R52">
-            <v>94.86</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="C53">
-            <v>629</v>
-          </cell>
-          <cell r="R53">
-            <v>109.83</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="C54">
-            <v>624</v>
-          </cell>
-          <cell r="R54">
-            <v>162.61000000000001</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="C55">
-            <v>717</v>
-          </cell>
-          <cell r="R55">
-            <v>147.75</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="C56">
-            <v>743</v>
-          </cell>
-          <cell r="R56">
-            <v>140.24</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="C57">
-            <v>650</v>
-          </cell>
-          <cell r="R57">
-            <v>131.25</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="C58">
-            <v>700</v>
-          </cell>
-          <cell r="R58">
-            <v>123.04</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="C59">
-            <v>668</v>
-          </cell>
-          <cell r="R59">
-            <v>101.61</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="C60">
-            <v>631</v>
-          </cell>
-          <cell r="R60">
-            <v>109.77</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="C61">
-            <v>616</v>
-          </cell>
-          <cell r="R61">
-            <v>92.84</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="C62">
-            <v>626</v>
-          </cell>
-          <cell r="R62">
-            <v>84.84</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="C63">
-            <v>765</v>
-          </cell>
-          <cell r="R63">
-            <v>160.17000000000002</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="C64">
-            <v>646</v>
-          </cell>
-          <cell r="R64">
-            <v>143</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="C65">
-            <v>676</v>
-          </cell>
-          <cell r="R65">
-            <v>115.8</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="C66">
-            <v>666</v>
-          </cell>
-          <cell r="R66">
-            <v>136</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="C67">
-            <v>691</v>
-          </cell>
-          <cell r="R67">
-            <v>129</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="C68">
-            <v>590</v>
-          </cell>
-          <cell r="R68">
-            <v>77.61</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="C69">
-            <v>580</v>
-          </cell>
-          <cell r="R69">
-            <v>74.25</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="C70">
-            <v>605</v>
-          </cell>
-          <cell r="R70">
-            <v>132.19</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="C71">
-            <v>658</v>
-          </cell>
-          <cell r="R71">
-            <v>137.01</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="C72">
-            <v>662</v>
-          </cell>
-          <cell r="R72">
-            <v>81.849999999999994</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="C73">
-            <v>613</v>
-          </cell>
-          <cell r="R73">
-            <v>76.56</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="C74">
-            <v>574</v>
-          </cell>
-          <cell r="R74">
-            <v>92.92</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="C75">
-            <v>650</v>
-          </cell>
-          <cell r="R75">
-            <v>176.01</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="C76">
-            <v>575</v>
-          </cell>
-          <cell r="R76">
-            <v>89.66</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="C77">
-            <v>674</v>
-          </cell>
-          <cell r="R77">
-            <v>126.44</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="C78">
-            <v>683</v>
-          </cell>
-          <cell r="R78">
-            <v>112.94</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="C79">
-            <v>596</v>
-          </cell>
-          <cell r="R79">
-            <v>82.02</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="C80">
-            <v>599</v>
-          </cell>
-          <cell r="R80">
-            <v>109.89</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="C81">
-            <v>684</v>
-          </cell>
-          <cell r="R81">
-            <v>83.84</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1446,7 +553,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC119" sqref="AC119"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1459,7 +566,8 @@
     <col min="17" max="17" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="21" max="26" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.2">
@@ -1470,82 +578,82 @@
         <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="W1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="X1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="Y1" s="4" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="Z1" s="4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AA1" s="4" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AB1" s="4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AC1" s="4"/>
       <c r="AD1" s="4"/>
@@ -1590,13 +698,13 @@
         <v>44264</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P2" s="7" t="s">
         <v>4</v>
@@ -1681,13 +789,13 @@
         <v>44264</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P3" s="7" t="s">
         <v>4</v>
@@ -1772,13 +880,13 @@
         <v>44264</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>4</v>
@@ -1863,13 +971,13 @@
         <v>44264</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>4</v>
@@ -1954,13 +1062,13 @@
         <v>44264</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>4</v>
@@ -2045,16 +1153,16 @@
         <v>44264</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>4</v>
@@ -2133,13 +1241,13 @@
         <v>44264</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>4</v>
@@ -2224,13 +1332,13 @@
         <v>44264</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>4</v>
@@ -2315,13 +1423,13 @@
         <v>44264</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>4</v>
@@ -2406,13 +1514,13 @@
         <v>44264</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>4</v>
@@ -2497,13 +1605,13 @@
         <v>44264</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>4</v>
@@ -2588,13 +1696,13 @@
         <v>44264</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>4</v>
@@ -2679,13 +1787,13 @@
         <v>44264</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>4</v>
@@ -2770,13 +1878,13 @@
         <v>44264</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>4</v>
@@ -2861,13 +1969,13 @@
         <v>44264</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>4</v>
@@ -2952,13 +2060,13 @@
         <v>44264</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>4</v>
@@ -3043,13 +2151,13 @@
         <v>44264</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>4</v>
@@ -3134,13 +2242,13 @@
         <v>44264</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>4</v>
@@ -3225,13 +2333,13 @@
         <v>44264</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>4</v>
@@ -3316,13 +2424,13 @@
         <v>44264</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>4</v>
@@ -3407,13 +2515,13 @@
         <v>44264</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>4</v>
@@ -3498,13 +2606,13 @@
         <v>44264</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N23" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>4</v>
@@ -3589,13 +2697,13 @@
         <v>44264</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N24" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>4</v>
@@ -3680,13 +2788,13 @@
         <v>44264</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N25" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>4</v>
@@ -3771,13 +2879,13 @@
         <v>44264</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N26" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>4</v>
@@ -3862,13 +2970,13 @@
         <v>44264</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N27" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>4</v>
@@ -3953,13 +3061,13 @@
         <v>44264</v>
       </c>
       <c r="M28" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N28" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>4</v>
@@ -4044,13 +3152,13 @@
         <v>44264</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N29" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>4</v>
@@ -4135,13 +3243,13 @@
         <v>44264</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N30" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>4</v>
@@ -4226,13 +3334,13 @@
         <v>44264</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N31" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>4</v>
@@ -4317,13 +3425,13 @@
         <v>44264</v>
       </c>
       <c r="M32" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N32" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>4</v>
@@ -4408,13 +3516,13 @@
         <v>44264</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N33" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>4</v>
@@ -4499,13 +3607,13 @@
         <v>44264</v>
       </c>
       <c r="M34" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N34" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>4</v>
@@ -4590,13 +3698,13 @@
         <v>44264</v>
       </c>
       <c r="M35" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N35" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>4</v>
@@ -4681,13 +3789,13 @@
         <v>44264</v>
       </c>
       <c r="M36" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N36" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>4</v>
@@ -4772,13 +3880,13 @@
         <v>44264</v>
       </c>
       <c r="M37" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N37" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>4</v>
@@ -4863,13 +3971,13 @@
         <v>44264</v>
       </c>
       <c r="M38" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N38" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>4</v>
@@ -4954,13 +4062,13 @@
         <v>44264</v>
       </c>
       <c r="M39" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N39" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P39" s="7" t="s">
         <v>4</v>
@@ -5045,13 +4153,13 @@
         <v>44264</v>
       </c>
       <c r="M40" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N40" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>4</v>
@@ -5136,13 +4244,13 @@
         <v>44264</v>
       </c>
       <c r="M41" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N41" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>4</v>
@@ -5224,13 +4332,13 @@
         <v>44264</v>
       </c>
       <c r="M42" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N42" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P42" s="7" t="s">
         <v>4</v>
@@ -5313,13 +4421,13 @@
         <v>44264</v>
       </c>
       <c r="M43" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N43" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P43" s="7" t="s">
         <v>4</v>
@@ -5401,13 +4509,13 @@
         <v>44264</v>
       </c>
       <c r="M44" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N44" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>4</v>
@@ -5489,13 +4597,13 @@
         <v>44264</v>
       </c>
       <c r="M45" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N45" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P45" s="7" t="s">
         <v>4</v>
@@ -5577,13 +4685,13 @@
         <v>44264</v>
       </c>
       <c r="M46" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N46" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P46" s="7" t="s">
         <v>4</v>
@@ -5665,13 +4773,13 @@
         <v>44264</v>
       </c>
       <c r="M47" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N47" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P47" s="7" t="s">
         <v>4</v>
@@ -5753,13 +4861,13 @@
         <v>44264</v>
       </c>
       <c r="M48" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N48" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P48" s="7" t="s">
         <v>4</v>
@@ -5841,13 +4949,13 @@
         <v>44264</v>
       </c>
       <c r="M49" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N49" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P49" s="7" t="s">
         <v>4</v>
@@ -5929,13 +5037,13 @@
         <v>44264</v>
       </c>
       <c r="M50" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N50" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P50" s="7" t="s">
         <v>4</v>
@@ -6017,13 +5125,13 @@
         <v>44264</v>
       </c>
       <c r="M51" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N51" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P51" s="7" t="s">
         <v>4</v>
@@ -6105,13 +5213,13 @@
         <v>44264</v>
       </c>
       <c r="M52" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N52" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P52" s="7" t="s">
         <v>4</v>
@@ -6193,13 +5301,13 @@
         <v>44264</v>
       </c>
       <c r="M53" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N53" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P53" s="7" t="s">
         <v>4</v>
@@ -6281,13 +5389,13 @@
         <v>44264</v>
       </c>
       <c r="M54" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N54" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P54" s="7" t="s">
         <v>4</v>
@@ -6369,13 +5477,13 @@
         <v>44264</v>
       </c>
       <c r="M55" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N55" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P55" s="7" t="s">
         <v>4</v>
@@ -6458,13 +5566,13 @@
         <v>44264</v>
       </c>
       <c r="M56" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N56" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P56" s="7" t="s">
         <v>4</v>
@@ -6547,13 +5655,13 @@
         <v>44264</v>
       </c>
       <c r="M57" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N57" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P57" s="7" t="s">
         <v>4</v>
@@ -6635,13 +5743,13 @@
         <v>44264</v>
       </c>
       <c r="M58" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N58" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P58" s="7" t="s">
         <v>4</v>
@@ -6724,13 +5832,13 @@
         <v>44264</v>
       </c>
       <c r="M59" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N59" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P59" s="7" t="s">
         <v>4</v>
@@ -6812,13 +5920,13 @@
         <v>44264</v>
       </c>
       <c r="M60" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N60" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P60" s="7" t="s">
         <v>4</v>
@@ -6900,13 +6008,13 @@
         <v>44264</v>
       </c>
       <c r="M61" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N61" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P61" s="7" t="s">
         <v>4</v>
@@ -6988,13 +6096,13 @@
         <v>44264</v>
       </c>
       <c r="M62" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N62" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P62" s="7" t="s">
         <v>4</v>
@@ -7076,13 +6184,13 @@
         <v>44264</v>
       </c>
       <c r="M63" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N63" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P63" s="7" t="s">
         <v>4</v>
@@ -7165,13 +6273,13 @@
         <v>44264</v>
       </c>
       <c r="M64" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N64" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P64" s="7" t="s">
         <v>4</v>
@@ -7253,13 +6361,13 @@
         <v>44264</v>
       </c>
       <c r="M65" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N65" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P65" s="7" t="s">
         <v>4</v>
@@ -7341,13 +6449,13 @@
         <v>44264</v>
       </c>
       <c r="M66" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N66" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P66" s="7" t="s">
         <v>4</v>
@@ -7429,13 +6537,13 @@
         <v>44264</v>
       </c>
       <c r="M67" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N67" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P67" s="7" t="s">
         <v>4</v>
@@ -7517,13 +6625,13 @@
         <v>44264</v>
       </c>
       <c r="M68" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N68" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P68" s="7" t="s">
         <v>4</v>
@@ -7605,13 +6713,13 @@
         <v>44264</v>
       </c>
       <c r="M69" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N69" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P69" s="7" t="s">
         <v>4</v>
@@ -7693,13 +6801,13 @@
         <v>44264</v>
       </c>
       <c r="M70" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N70" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P70" s="7" t="s">
         <v>4</v>
@@ -7782,13 +6890,13 @@
         <v>44264</v>
       </c>
       <c r="M71" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N71" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P71" s="7" t="s">
         <v>4</v>
@@ -7870,13 +6978,13 @@
         <v>44264</v>
       </c>
       <c r="M72" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N72" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P72" s="7" t="s">
         <v>4</v>
@@ -7958,13 +7066,13 @@
         <v>44264</v>
       </c>
       <c r="M73" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N73" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P73" s="7" t="s">
         <v>4</v>
@@ -8046,13 +7154,13 @@
         <v>44264</v>
       </c>
       <c r="M74" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N74" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P74" s="7" t="s">
         <v>4</v>
@@ -8134,13 +7242,13 @@
         <v>44264</v>
       </c>
       <c r="M75" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N75" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O75" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P75" s="7" t="s">
         <v>4</v>
@@ -8223,13 +7331,13 @@
         <v>44264</v>
       </c>
       <c r="M76" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N76" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O76" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P76" s="7" t="s">
         <v>4</v>
@@ -8311,13 +7419,13 @@
         <v>44264</v>
       </c>
       <c r="M77" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N77" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O77" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P77" s="7" t="s">
         <v>4</v>
@@ -8399,13 +7507,13 @@
         <v>44264</v>
       </c>
       <c r="M78" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N78" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O78" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P78" s="7" t="s">
         <v>4</v>
@@ -8487,13 +7595,13 @@
         <v>44264</v>
       </c>
       <c r="M79" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N79" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P79" s="7" t="s">
         <v>4</v>
@@ -8575,13 +7683,13 @@
         <v>44264</v>
       </c>
       <c r="M80" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N80" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O80" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P80" s="7" t="s">
         <v>4</v>
@@ -8663,13 +7771,13 @@
         <v>44264</v>
       </c>
       <c r="M81" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N81" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O81" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P81" s="7" t="s">
         <v>4</v>
@@ -8751,16 +7859,16 @@
         <v>44264</v>
       </c>
       <c r="M82" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N82" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O82" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P82" s="7" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="Q82">
         <v>52933</v>
@@ -8839,16 +7947,16 @@
         <v>44264</v>
       </c>
       <c r="M83" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N83" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O83" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P83" s="7" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="Q83">
         <v>52930</v>
@@ -8927,16 +8035,16 @@
         <v>44264</v>
       </c>
       <c r="M84" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N84" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O84" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P84" s="7" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="Q84">
         <v>52937</v>
@@ -9015,13 +8123,13 @@
         <v>44264</v>
       </c>
       <c r="M85" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N85" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O85" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P85" s="7" t="s">
         <v>4</v>
@@ -9103,13 +8211,13 @@
         <v>44264</v>
       </c>
       <c r="M86" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N86" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O86" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P86" s="7" t="s">
         <v>4</v>
@@ -9191,13 +8299,13 @@
         <v>44264</v>
       </c>
       <c r="M87" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N87" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O87" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P87" s="7" t="s">
         <v>4</v>
@@ -9279,13 +8387,13 @@
         <v>44264</v>
       </c>
       <c r="M88" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N88" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O88" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P88" s="7" t="s">
         <v>4</v>
@@ -9367,13 +8475,13 @@
         <v>44264</v>
       </c>
       <c r="M89" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N89" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O89" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P89" s="7" t="s">
         <v>4</v>
@@ -9455,13 +8563,13 @@
         <v>44264</v>
       </c>
       <c r="M90" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N90" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O90" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P90" s="7" t="s">
         <v>4</v>
@@ -9543,13 +8651,13 @@
         <v>44264</v>
       </c>
       <c r="M91" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N91" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O91" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P91" s="7" t="s">
         <v>4</v>
@@ -9631,13 +8739,13 @@
         <v>44264</v>
       </c>
       <c r="M92" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N92" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O92" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P92" s="7" t="s">
         <v>4</v>
@@ -9719,13 +8827,13 @@
         <v>44264</v>
       </c>
       <c r="M93" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N93" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O93" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P93" s="7" t="s">
         <v>4</v>
@@ -9807,13 +8915,13 @@
         <v>44264</v>
       </c>
       <c r="M94" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N94" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O94" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P94" s="7" t="s">
         <v>4</v>
@@ -9895,13 +9003,13 @@
         <v>44264</v>
       </c>
       <c r="M95" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N95" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O95" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P95" s="7" t="s">
         <v>4</v>
@@ -9983,13 +9091,13 @@
         <v>44264</v>
       </c>
       <c r="M96" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N96" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O96" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P96" s="7" t="s">
         <v>4</v>
@@ -10071,13 +9179,13 @@
         <v>44264</v>
       </c>
       <c r="M97" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N97" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O97" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P97" s="7" t="s">
         <v>4</v>
@@ -10159,13 +9267,13 @@
         <v>44264</v>
       </c>
       <c r="M98" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N98" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O98" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P98" s="7" t="s">
         <v>4</v>
@@ -10247,13 +9355,13 @@
         <v>44264</v>
       </c>
       <c r="M99" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N99" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O99" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P99" s="7" t="s">
         <v>4</v>
@@ -10335,13 +9443,13 @@
         <v>44264</v>
       </c>
       <c r="M100" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N100" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O100" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P100" s="7" t="s">
         <v>4</v>
@@ -10423,13 +9531,13 @@
         <v>44264</v>
       </c>
       <c r="M101" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N101" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O101" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P101" s="7" t="s">
         <v>4</v>
@@ -10511,13 +9619,13 @@
         <v>44264</v>
       </c>
       <c r="M102" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N102" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O102" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P102" s="7" t="s">
         <v>4</v>
@@ -10599,13 +9707,13 @@
         <v>44264</v>
       </c>
       <c r="M103" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N103" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O103" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P103" s="7" t="s">
         <v>4</v>
@@ -10687,13 +9795,13 @@
         <v>44264</v>
       </c>
       <c r="M104" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N104" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O104" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P104" s="7" t="s">
         <v>4</v>
@@ -10775,13 +9883,13 @@
         <v>44264</v>
       </c>
       <c r="M105" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N105" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O105" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P105" s="7" t="s">
         <v>4</v>
@@ -10863,13 +9971,13 @@
         <v>44264</v>
       </c>
       <c r="M106" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N106" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O106" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P106" s="7" t="s">
         <v>4</v>
@@ -10951,16 +10059,16 @@
         <v>44264</v>
       </c>
       <c r="M107" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N107" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O107" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P107" s="7" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="Q107">
         <v>52934</v>
@@ -11039,13 +10147,13 @@
         <v>44264</v>
       </c>
       <c r="M108" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N108" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O108" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P108" s="7" t="s">
         <v>4</v>
@@ -11127,13 +10235,13 @@
         <v>44264</v>
       </c>
       <c r="M109" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N109" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O109" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P109" s="7" t="s">
         <v>4</v>
@@ -11215,13 +10323,13 @@
         <v>44264</v>
       </c>
       <c r="M110" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N110" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O110" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P110" s="7" t="s">
         <v>4</v>
@@ -11303,13 +10411,13 @@
         <v>44264</v>
       </c>
       <c r="M111" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N111" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O111" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P111" s="7" t="s">
         <v>4</v>
@@ -11391,13 +10499,13 @@
         <v>44264</v>
       </c>
       <c r="M112" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N112" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O112" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P112" s="7" t="s">
         <v>4</v>
@@ -11479,13 +10587,13 @@
         <v>44264</v>
       </c>
       <c r="M113" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N113" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O113" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P113" s="7" t="s">
         <v>4</v>
@@ -11567,13 +10675,13 @@
         <v>44264</v>
       </c>
       <c r="M114" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N114" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O114" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P114" s="7" t="s">
         <v>4</v>
@@ -11655,16 +10763,16 @@
         <v>44264</v>
       </c>
       <c r="M115" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N115" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O115" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P115" s="7" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="Q115">
         <v>52931</v>
@@ -11743,13 +10851,13 @@
         <v>44264</v>
       </c>
       <c r="M116" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N116" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O116" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P116" s="7" t="s">
         <v>4</v>
@@ -11831,13 +10939,13 @@
         <v>44264</v>
       </c>
       <c r="M117" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N117" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O117" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P117" s="7" t="s">
         <v>4</v>
@@ -11919,13 +11027,13 @@
         <v>44264</v>
       </c>
       <c r="M118" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N118" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O118" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P118" s="7" t="s">
         <v>4</v>
@@ -12007,13 +11115,13 @@
         <v>44264</v>
       </c>
       <c r="M119" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N119" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O119" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P119" s="7" t="s">
         <v>4</v>
@@ -12095,13 +11203,13 @@
         <v>44264</v>
       </c>
       <c r="M120" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N120" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O120" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P120" s="7" t="s">
         <v>4</v>
@@ -12183,13 +11291,13 @@
         <v>44264</v>
       </c>
       <c r="M121" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N121" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O121" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P121" s="7" t="s">
         <v>4</v>
@@ -12271,13 +11379,13 @@
         <v>44264</v>
       </c>
       <c r="M122" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N122" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O122" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P122" s="7" t="s">
         <v>4</v>
@@ -12359,13 +11467,13 @@
         <v>44264</v>
       </c>
       <c r="M123" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N123" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O123" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="P123" s="7" t="s">
         <v>4</v>

--- a/data/blue_sucker_2021_data.xlsx
+++ b/data/blue_sucker_2021_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lindseylabrie/Desktop/blue_sucker/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lindseylabrie/Documents/GitHub/blue_sucker/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95887190-FD10-194A-9D5E-77B3038CA103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBEE8E06-42AA-5C45-A4F6-0968B588424D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="420" yWindow="500" windowWidth="26340" windowHeight="13320" xr2:uid="{8552AB9B-F092-A14C-8782-BA2E7E5B778C}"/>
   </bookViews>
@@ -551,9 +551,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A97F435-7B7E-814E-B462-0194C5642130}">
   <dimension ref="A1:AD123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -911,7 +911,7 @@
         <v>242</v>
       </c>
       <c r="W4">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="X4">
         <v>235</v>
@@ -924,7 +924,7 @@
       </c>
       <c r="AA4" s="8">
         <f>AVERAGE(U4:W4)</f>
-        <v>165</v>
+        <v>231.66666666666666</v>
       </c>
       <c r="AB4" s="8">
         <f>AVERAGE(X4:Z4)</f>
